--- a/Tools/Schema/APIs.xlsx
+++ b/Tools/Schema/APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\JenkinsWebApi.xml\Tools\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8D40F6-9C3B-436F-8282-EC4E53F37922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2EF68-3CB0-4B54-97AC-D85904BC6F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="1392" windowWidth="20100" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16968" yWindow="864" windowWidth="26184" windowHeight="17964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Views</t>
   </si>
@@ -33,12 +33,6 @@
     <t>listView</t>
   </si>
   <si>
-    <t>Class Name</t>
-  </si>
-  <si>
-    <t>Namespace</t>
-  </si>
-  <si>
     <t>Plugin</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>jenkins-multijob-plugin</t>
   </si>
   <si>
-    <t>Jobs</t>
-  </si>
-  <si>
     <t>freeStyleProject</t>
   </si>
   <si>
@@ -105,18 +96,12 @@
     <t>hudson.model.Build</t>
   </si>
   <si>
-    <t>Builds</t>
-  </si>
-  <si>
     <t>freeStyleBuild</t>
   </si>
   <si>
     <t>hudson.model.FreeStyleBuild</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>Maven-Project</t>
   </si>
   <si>
@@ -166,6 +151,51 @@
   </si>
   <si>
     <t>hudson.model.Run</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Jenkins Class</t>
+  </si>
+  <si>
+    <t>Jenkins Base Class</t>
+  </si>
+  <si>
+    <t>JenkinsWebApi Class</t>
+  </si>
+  <si>
+    <t>JenkinsModelListView</t>
+  </si>
+  <si>
+    <t>JenkinsModelMyView</t>
+  </si>
+  <si>
+    <t>JenkinsModelAllView</t>
+  </si>
+  <si>
+    <t>JenkinsOrgJenkinsciPluginsCategorizedviewCategorizedJobsView</t>
+  </si>
+  <si>
+    <t>JenkinsPluginsViewDashboardDashboard</t>
+  </si>
+  <si>
+    <t>JenkinsComTikalJenkinsPluginsMultijobViewsMultiJobView</t>
+  </si>
+  <si>
+    <t>JenkinsModelFreeStyleProject</t>
+  </si>
+  <si>
+    <t>JenkinsModelFreeStyleBuild</t>
+  </si>
+  <si>
+    <t>Project / Jobs</t>
+  </si>
+  <si>
+    <t>Builds / Run</t>
+  </si>
+  <si>
+    <t>JenkinsMavenMavenBuild</t>
   </si>
 </sst>
 </file>
@@ -255,12 +285,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -544,298 +574,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F35"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A35"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{26E579A6-5328-4C08-804A-EA9E0C21EE46}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{CF9C051C-0DFD-4A6C-A715-C72F81805990}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{3E3BA12C-F648-4A5C-A8E8-FB40A9C292AE}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{26E579A6-5328-4C08-804A-EA9E0C21EE46}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{CF9C051C-0DFD-4A6C-A715-C72F81805990}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{3E3BA12C-F648-4A5C-A8E8-FB40A9C292AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Tools/Schema/APIs.xlsx
+++ b/Tools/Schema/APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\JenkinsWebApi.xml\Tools\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2EF68-3CB0-4B54-97AC-D85904BC6F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5623B-D946-4AD9-A6B6-809B8C9244ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16968" yWindow="864" windowWidth="26184" windowHeight="17964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26508" yWindow="2904" windowWidth="26184" windowHeight="17964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Views</t>
   </si>
@@ -174,15 +174,9 @@
     <t>JenkinsModelAllView</t>
   </si>
   <si>
-    <t>JenkinsOrgJenkinsciPluginsCategorizedviewCategorizedJobsView</t>
-  </si>
-  <si>
     <t>JenkinsPluginsViewDashboardDashboard</t>
   </si>
   <si>
-    <t>JenkinsComTikalJenkinsPluginsMultijobViewsMultiJobView</t>
-  </si>
-  <si>
     <t>JenkinsModelFreeStyleProject</t>
   </si>
   <si>
@@ -196,6 +190,27 @@
   </si>
   <si>
     <t>JenkinsMavenMavenBuild</t>
+  </si>
+  <si>
+    <t>Div Plugins</t>
+  </si>
+  <si>
+    <t>JenkinsOrgJenkinsciPluginsEnvinjectEnvInjectVarList</t>
+  </si>
+  <si>
+    <t>Environment Injector Plugin</t>
+  </si>
+  <si>
+    <t>buildgraph-view</t>
+  </si>
+  <si>
+    <t>JenkinsOrgJenkinsciPluginsBuildgraphviewBuildGraph</t>
+  </si>
+  <si>
+    <t>JenkinsTikalMultiJobView</t>
+  </si>
+  <si>
+    <t>JenkinsJenkinsciCategorizedJobsView</t>
   </si>
 </sst>
 </file>
@@ -574,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -679,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -696,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -713,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -727,7 +742,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -742,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -813,7 +828,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -828,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -848,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -875,26 +890,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{26E579A6-5328-4C08-804A-EA9E0C21EE46}"/>

--- a/Tools/Schema/APIs.xlsx
+++ b/Tools/Schema/APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\JenkinsWebApi.xml\Tools\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5623B-D946-4AD9-A6B6-809B8C9244ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51723206-4319-427A-9B9C-A7A322E66042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26508" yWindow="2904" windowWidth="26184" windowHeight="17964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="36" windowWidth="12264" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Tools/Schema/APIs.xlsx
+++ b/Tools/Schema/APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\JenkinsWebApi.xml\Tools\Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51723206-4319-427A-9B9C-A7A322E66042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2B3884-02D9-475D-8860-3C35D7C778C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="36" windowWidth="12264" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,7 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -306,6 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -592,7 +599,7 @@
   <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +658,7 @@
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -793,7 +800,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -873,7 +880,7 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>41</v>
       </c>
     </row>
